--- a/CTVA.xlsx
+++ b/CTVA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03FFEEFF-F7E9-4F60-995E-17631CC620BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52A444A-7FB9-4C72-8F5D-E86974A15E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{55400420-C6D9-42FA-8ADC-511E62F608E6}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,12 +75,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -103,8 +108,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -440,49 +446,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53E42D3-7E55-492C-B24D-17B3C0510CF1}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="232" zoomScaleNormal="232" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E3" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E5" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
